--- a/data/question_01/occupation_sex_race/general_compare/2016-2017.xlsx
+++ b/data/question_01/occupation_sex_race/general_compare/2016-2017.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\filer6\dfsms\FSMSOCEA\DLFS_Telework\Telework_Release\Other\E&amp;E_Annual_embargoed_until_release\Under_review\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshiyu/Desktop/Columbia/Fall 2021/GR 5702/final_project/data/question_01/occupation_sex_race/general_compare/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E97BF9-11EA-CA43-956C-808BD93ECAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cpsaat10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -119,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#0.0"/>
   </numFmts>
@@ -152,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -172,6 +184,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -179,10 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,71 +475,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" customWidth="1"/>
-    <col min="2" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="59.6640625" customWidth="1"/>
+    <col min="2" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -546,23 +559,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -585,7 +598,7 @@
         <v>71936</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -608,7 +621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -631,7 +644,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -654,7 +667,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -677,7 +690,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -700,7 +713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -723,7 +736,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -746,7 +759,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -769,7 +782,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -792,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -815,7 +828,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -838,7 +851,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -861,7 +874,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -884,7 +897,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -907,7 +920,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -930,12 +943,15 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -958,7 +974,7 @@
         <v>55176</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -981,7 +997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -1004,7 +1020,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1043,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1066,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1089,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1096,7 +1112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -1119,7 +1135,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1158,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
@@ -1165,7 +1181,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>19</v>
       </c>
@@ -1188,7 +1204,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>20</v>
       </c>
@@ -1211,7 +1227,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1250,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1273,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>23</v>
       </c>
@@ -1280,7 +1296,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>24</v>
       </c>
@@ -1303,12 +1319,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -1331,7 +1347,7 @@
         <v>9845</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1354,7 +1370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
@@ -1377,7 +1393,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +1416,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
@@ -1423,7 +1439,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>14</v>
       </c>
@@ -1446,7 +1462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>16</v>
       </c>
@@ -1492,7 +1508,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1531,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>18</v>
       </c>
@@ -1538,7 +1554,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>19</v>
       </c>
@@ -1561,7 +1577,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
@@ -1584,7 +1600,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>21</v>
       </c>
@@ -1607,7 +1623,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>22</v>
       </c>
@@ -1630,7 +1646,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>23</v>
       </c>
@@ -1653,7 +1669,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>24</v>
       </c>
@@ -1676,12 +1692,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1720,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -1727,7 +1743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>11</v>
       </c>
@@ -1750,7 +1766,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>12</v>
       </c>
@@ -1773,7 +1789,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>13</v>
       </c>
@@ -1796,7 +1812,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>14</v>
       </c>
@@ -1819,7 +1835,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>15</v>
       </c>
@@ -1842,7 +1858,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>16</v>
       </c>
@@ -1865,7 +1881,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1904,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>18</v>
       </c>
@@ -1911,7 +1927,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>19</v>
       </c>
@@ -1934,7 +1950,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
@@ -1957,7 +1973,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>21</v>
       </c>
@@ -1980,7 +1996,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>22</v>
       </c>
@@ -2003,7 +2019,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>23</v>
       </c>
@@ -2026,7 +2042,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>24</v>
       </c>
@@ -2049,12 +2065,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -2077,7 +2093,7 @@
         <v>11064</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
@@ -2100,7 +2116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +2139,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>12</v>
       </c>
@@ -2146,7 +2162,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>13</v>
       </c>
@@ -2169,7 +2185,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>14</v>
       </c>
@@ -2192,7 +2208,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>15</v>
       </c>
@@ -2215,7 +2231,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>16</v>
       </c>
@@ -2238,7 +2254,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>17</v>
       </c>
@@ -2261,7 +2277,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>18</v>
       </c>
@@ -2284,7 +2300,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>19</v>
       </c>
@@ -2307,7 +2323,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>20</v>
       </c>
@@ -2330,7 +2346,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>21</v>
       </c>
@@ -2353,7 +2369,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>22</v>
       </c>
@@ -2376,7 +2392,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>23</v>
       </c>
@@ -2399,7 +2415,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>24</v>
       </c>
@@ -2422,27 +2438,27 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="97" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
